--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43759</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44285</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44377</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         <v>45090</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43367</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43787</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>44110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44323</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44967</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>43782</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>43783</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>44078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>44176</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43439</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>43511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43511</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>43511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>43515</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43570</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43606</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43711</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43768</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43861</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43913</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44018</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44054</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44069</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44110</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44110</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44110</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>44176</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44207</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>44533</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>44623</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44715</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>44750</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44750</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44803</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>44803</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>44803</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>44914</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>44970</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>45063</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>45093</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45161</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45161</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>45162</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45162</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45162</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y54"/>
+  <dimension ref="A1:Y57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43759</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44285</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44377</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         <v>45090</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43367</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43787</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>44110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44323</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44967</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>43782</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>43783</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>44078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>44176</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43439</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>43511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43511</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>43511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>43515</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43570</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43606</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43711</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43768</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43861</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43913</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44018</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44054</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44069</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44110</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44110</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44110</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>44176</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44207</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>44533</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>44623</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44715</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>44750</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44750</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44803</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>44803</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>44803</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>44914</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>44970</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>45063</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>45093</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45161</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45161</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>45162</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45162</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
       </c>
       <c r="R53" s="2" t="inlineStr"/>
     </row>
-    <row r="54">
+    <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
           <t>A 38453-2023</t>
@@ -4140,7 +4140,7 @@
         <v>45162</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4191,6 +4191,192 @@
         <v>0</v>
       </c>
       <c r="R54" s="2" t="inlineStr"/>
+    </row>
+    <row r="55" ht="15" customHeight="1">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>A 41272-2023</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" s="2" t="inlineStr"/>
+    </row>
+    <row r="56" ht="15" customHeight="1">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>A 41263-2023</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" s="2" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>A 41276-2023</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43759</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44285</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44377</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         <v>45090</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43367</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43787</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>44110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44323</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44967</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>43782</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>43783</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>44078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>44176</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43439</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>43511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43511</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>43511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>43515</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43570</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43606</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43711</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43768</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43861</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43913</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44018</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44054</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44069</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44110</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44110</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44110</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>44176</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44207</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>44533</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>44623</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44715</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>44750</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44750</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44803</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>44803</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>44803</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>44914</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>44970</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>45063</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>45093</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45161</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45161</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>45162</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45162</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45162</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>45174</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>45174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>45174</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43759</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44285</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44377</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         <v>45090</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43367</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43787</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>44110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44323</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44967</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>43782</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>43783</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>44078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>44176</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43439</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>43511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43511</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>43511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>43515</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43570</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43606</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43711</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43768</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43861</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43913</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44018</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44054</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44069</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44110</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44110</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44110</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>44176</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44207</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>44533</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>44623</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44715</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>44750</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44750</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44803</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>44803</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>44803</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>44914</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>44970</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>45063</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>45093</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45161</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45161</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>45162</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45162</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45162</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>45174</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>45174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>45174</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43759</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44285</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44377</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         <v>45090</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43367</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43787</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>44110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44323</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44967</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>43782</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>43783</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>44078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>44176</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43439</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>43511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43511</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>43511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>43515</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43570</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43606</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43711</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43768</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43861</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43913</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44018</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44054</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44069</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44110</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44110</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44110</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>44176</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44207</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>44533</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>44623</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44715</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>44750</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44750</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44803</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>44803</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>44803</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>44914</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>44970</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>45063</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>45093</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45161</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45161</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>45162</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45162</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45162</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>45174</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>45174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>45174</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43759</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44285</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44377</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         <v>45090</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43367</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43787</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>44110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44323</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44967</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>43782</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>43783</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>44078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>44176</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43439</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>43511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43511</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>43511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>43515</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43570</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43606</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43711</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43768</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43861</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43913</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44018</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44054</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44069</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44110</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44110</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44110</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>44176</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44207</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>44533</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>44623</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44715</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>44750</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44750</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44803</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>44803</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>44803</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>44914</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>44970</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>45063</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>45093</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45161</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45161</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>45162</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45162</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45162</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>45174</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>45174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>45174</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43759</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44285</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44377</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         <v>45090</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43367</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43787</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>44110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44323</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44967</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>43782</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>43783</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>44078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>44176</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43439</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>43511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43511</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>43511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>43515</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43570</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43606</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43711</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43768</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43861</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43913</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44018</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44054</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44069</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44110</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44110</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44110</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>44176</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44207</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>44533</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>44623</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44715</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>44750</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44750</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44803</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>44803</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>44803</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>44914</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>44970</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>45063</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>45093</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45161</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45161</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>45162</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45162</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45162</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>45174</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>45174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>45174</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43759</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44285</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44377</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         <v>45090</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43367</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43787</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>44110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44323</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44967</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>43782</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>43783</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>44078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>44176</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43439</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>43511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43511</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>43511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>43515</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43570</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43606</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43711</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43768</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43861</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43913</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44018</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44054</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44069</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44110</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44110</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44110</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>44176</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44207</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>44533</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>44623</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44715</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>44750</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44750</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44803</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>44803</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>44803</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>44914</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>44970</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>45063</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>45093</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45161</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45161</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>45162</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45162</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45162</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>45174</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>45174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>45174</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43759</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44285</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44377</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         <v>45090</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43367</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43787</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>44110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44323</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44967</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>43782</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>43783</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>44078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>44176</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43439</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>43511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43511</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>43511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>43515</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43570</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43606</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43711</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43768</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43861</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43913</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44018</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44054</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44069</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44110</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44110</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44110</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>44176</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44207</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>44533</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>44623</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44715</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>44750</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44750</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44803</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>44803</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>44803</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>44914</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>44970</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>45063</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>45093</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45161</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45161</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>45162</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45162</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45162</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>45174</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>45174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>45174</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43759</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -639,31 +639,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 55967-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 55967-2019.xlsx", "A 55967-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 55967-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 55967-2019.png", "A 55967-2019")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/knärot/A 55967-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/knärot/A 55967-2019.png", "A 55967-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 55967-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 55967-2019.docx", "A 55967-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 55967-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 55967-2019.docx", "A 55967-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 55967-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 55967-2019.docx", "A 55967-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 55967-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 55967-2019.docx", "A 55967-2019")</f>
         <v/>
       </c>
     </row>
@@ -677,7 +677,7 @@
         <v>44285</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,27 +744,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 15601-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 15601-2021.xlsx", "A 15601-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 15601-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 15601-2021.png", "A 15601-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 15601-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 15601-2021.docx", "A 15601-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 15601-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 15601-2021.docx", "A 15601-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 15601-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 15601-2021.docx", "A 15601-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 15601-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 15601-2021.docx", "A 15601-2021")</f>
         <v/>
       </c>
     </row>
@@ -778,7 +778,7 @@
         <v>44377</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,27 +836,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 33441-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 33441-2021.xlsx", "A 33441-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 33441-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 33441-2021.png", "A 33441-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 33441-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 33441-2021.docx", "A 33441-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 33441-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 33441-2021.docx", "A 33441-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 33441-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 33441-2021.docx", "A 33441-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 33441-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 33441-2021.docx", "A 33441-2021")</f>
         <v/>
       </c>
     </row>
@@ -870,7 +870,7 @@
         <v>45090</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,27 +928,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 25724-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 25724-2023.xlsx", "A 25724-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 25724-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 25724-2023.png", "A 25724-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 25724-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 25724-2023.docx", "A 25724-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 25724-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 25724-2023.docx", "A 25724-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 25724-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 25724-2023.docx", "A 25724-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 25724-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 25724-2023.docx", "A 25724-2023")</f>
         <v/>
       </c>
     </row>
@@ -962,7 +962,7 @@
         <v>43367</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,27 +1014,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 46277-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 46277-2018.xlsx", "A 46277-2018")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 46277-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 46277-2018.png", "A 46277-2018")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 46277-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 46277-2018.docx", "A 46277-2018")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 46277-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 46277-2018.docx", "A 46277-2018")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 46277-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 46277-2018.docx", "A 46277-2018")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 46277-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 46277-2018.docx", "A 46277-2018")</f>
         <v/>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
         <v>43787</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,27 +1105,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 62133-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 62133-2019.xlsx", "A 62133-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 62133-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 62133-2019.png", "A 62133-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 62133-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 62133-2019.docx", "A 62133-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 62133-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 62133-2019.docx", "A 62133-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 62133-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 62133-2019.docx", "A 62133-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 62133-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 62133-2019.docx", "A 62133-2019")</f>
         <v/>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
         <v>44110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,27 +1196,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 50415-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 50415-2020.xlsx", "A 50415-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 50415-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 50415-2020.png", "A 50415-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 50415-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 50415-2020.docx", "A 50415-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 50415-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 50415-2020.docx", "A 50415-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 50415-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 50415-2020.docx", "A 50415-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 50415-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 50415-2020.docx", "A 50415-2020")</f>
         <v/>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
         <v>44323</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1287,27 +1287,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 22025-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 22025-2021.xlsx", "A 22025-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 22025-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 22025-2021.png", "A 22025-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 22025-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 22025-2021.docx", "A 22025-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 22025-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 22025-2021.docx", "A 22025-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 22025-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 22025-2021.docx", "A 22025-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 22025-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 22025-2021.docx", "A 22025-2021")</f>
         <v/>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
         <v>44967</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,27 +1378,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 6832-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 6832-2023.xlsx", "A 6832-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 6832-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 6832-2023.png", "A 6832-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 6832-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 6832-2023.docx", "A 6832-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 6832-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 6832-2023.docx", "A 6832-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 6832-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 6832-2023.docx", "A 6832-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 6832-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 6832-2023.docx", "A 6832-2023")</f>
         <v/>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
         <v>43782</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,27 +1468,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 61147-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 61147-2019.xlsx", "A 61147-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 61147-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 61147-2019.png", "A 61147-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 61147-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 61147-2019.docx", "A 61147-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 61147-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 61147-2019.docx", "A 61147-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 61147-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 61147-2019.docx", "A 61147-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 61147-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 61147-2019.docx", "A 61147-2019")</f>
         <v/>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
         <v>43783</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,27 +1558,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 61354-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 61354-2019.xlsx", "A 61354-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 61354-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 61354-2019.png", "A 61354-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 61354-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 61354-2019.docx", "A 61354-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 61354-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 61354-2019.docx", "A 61354-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 61354-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 61354-2019.docx", "A 61354-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 61354-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 61354-2019.docx", "A 61354-2019")</f>
         <v/>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
         <v>44078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,27 +1648,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 42895-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 42895-2020.xlsx", "A 42895-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 42895-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 42895-2020.png", "A 42895-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 42895-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 42895-2020.docx", "A 42895-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 42895-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 42895-2020.docx", "A 42895-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 42895-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 42895-2020.docx", "A 42895-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 42895-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 42895-2020.docx", "A 42895-2020")</f>
         <v/>
       </c>
     </row>
@@ -1682,7 +1682,7 @@
         <v>44176</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1738,27 +1738,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 66277-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 66277-2020.xlsx", "A 66277-2020")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 66277-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 66277-2020.png", "A 66277-2020")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 66277-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 66277-2020.docx", "A 66277-2020")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 66277-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 66277-2020.docx", "A 66277-2020")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 66277-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 66277-2020.docx", "A 66277-2020")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 66277-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 66277-2020.docx", "A 66277-2020")</f>
         <v/>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
         <v>43439</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>43511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43511</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>43511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>43515</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43570</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43606</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43711</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43768</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43861</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43913</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44018</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44054</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44069</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44110</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44110</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44110</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>44176</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44207</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>44533</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>44623</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44715</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>44750</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44750</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44803</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>44803</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>44803</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>44914</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>44970</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>45063</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>45093</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45161</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45161</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>45162</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45162</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45162</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>45174</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>45174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>45174</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43759</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44285</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44377</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         <v>45090</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43367</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43787</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>44110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44323</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44967</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>43782</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>43783</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>44078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>44176</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43439</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>43511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43511</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>43511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>43515</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43570</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43606</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43711</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43768</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43861</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43913</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44018</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44054</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44069</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44110</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44110</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44110</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>44176</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44207</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>44533</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>44623</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44715</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>44750</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44750</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44803</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>44803</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>44803</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>44914</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>44970</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>45063</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>45093</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45161</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45161</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>45162</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45162</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45162</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>45174</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>45174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>45174</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43759</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44285</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44377</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         <v>45090</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43367</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43787</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>44110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44323</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44967</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>43782</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>43783</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>44078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>44176</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43439</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>43511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43511</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>43511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>43515</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43570</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43606</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43711</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43768</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43861</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43913</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44018</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44054</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44069</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44110</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44110</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44110</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>44176</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44207</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>44533</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>44623</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44715</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>44750</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44750</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44803</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>44803</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>44803</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>44914</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>44970</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>45063</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>45093</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45161</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45161</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>45162</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45162</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45162</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>45174</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>45174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>45174</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43759</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44285</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44377</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         <v>45090</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43367</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43787</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>44110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44323</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44967</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>43782</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>43783</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>44078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>44176</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43439</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>43511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43511</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>43511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>43515</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43570</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43606</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43711</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43768</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43861</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43913</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44018</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44054</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44069</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44110</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44110</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44110</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>44176</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44207</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>44533</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>44623</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44715</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>44750</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44750</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44803</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>44803</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>44803</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>44914</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>44970</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>45063</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>45093</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45161</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45161</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>45162</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45162</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45162</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>45174</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>45174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>45174</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43759</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44285</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44377</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         <v>45090</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43367</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43787</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>44110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44323</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44967</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>43782</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>43783</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>44078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>44176</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43439</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>43511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43511</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>43511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>43515</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43570</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43606</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43711</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43728</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43768</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43861</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43913</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44018</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44054</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44069</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44110</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44110</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44110</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>44176</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44207</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>44533</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>44623</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44715</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>44750</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44750</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44803</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>44803</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>44803</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>44914</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>44970</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>45063</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>45093</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45161</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45161</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>45162</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45162</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45162</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>45174</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>45174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>45174</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y57"/>
+  <dimension ref="A1:Y61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43759</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44285</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44377</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         <v>45090</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43367</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43787</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>44110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44323</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44967</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1405,14 +1405,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 61147-2019</t>
+          <t>A 45895-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>43782</v>
+        <v>45195</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1424,25 +1424,20 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>0.9</v>
+        <v>6.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1454,55 +1449,56 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Sårläka
+Trådfräken</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 61147-2019.xlsx", "A 61147-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 45895-2023.xlsx", "A 45895-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 61147-2019.png", "A 61147-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 45895-2023.png", "A 45895-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 61147-2019.docx", "A 61147-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 45895-2023.docx", "A 45895-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 61147-2019.docx", "A 61147-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 45895-2023.docx", "A 45895-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 61147-2019.docx", "A 61147-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 45895-2023.docx", "A 45895-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 61147-2019.docx", "A 61147-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 45895-2023.docx", "A 45895-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 61354-2019</t>
+          <t>A 61147-2019</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>43783</v>
+        <v>43782</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,20 +1516,20 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.9</v>
+        <v>0.9</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
@@ -1544,55 +1540,55 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 61354-2019.xlsx", "A 61354-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 61147-2019.xlsx", "A 61147-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 61354-2019.png", "A 61354-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 61147-2019.png", "A 61147-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 61354-2019.docx", "A 61354-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 61147-2019.docx", "A 61147-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 61354-2019.docx", "A 61354-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 61147-2019.docx", "A 61147-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 61354-2019.docx", "A 61354-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 61147-2019.docx", "A 61147-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 61354-2019.docx", "A 61354-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 61147-2019.docx", "A 61147-2019")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 42895-2020</t>
+          <t>A 61354-2019</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44078</v>
+        <v>43783</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1610,19 +1606,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>21.9</v>
+        <v>4.9</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1634,55 +1630,55 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Gölgroda</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 42895-2020.xlsx", "A 42895-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 61354-2019.xlsx", "A 61354-2019")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 42895-2020.png", "A 42895-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 61354-2019.png", "A 61354-2019")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 42895-2020.docx", "A 42895-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 61354-2019.docx", "A 61354-2019")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 42895-2020.docx", "A 42895-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 61354-2019.docx", "A 61354-2019")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 42895-2020.docx", "A 42895-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 61354-2019.docx", "A 61354-2019")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 42895-2020.docx", "A 42895-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 61354-2019.docx", "A 61354-2019")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 66277-2020</t>
+          <t>A 42895-2020</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44176</v>
+        <v>44078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1700,7 +1696,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.6</v>
+        <v>21.9</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1712,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1724,55 +1720,55 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Gölgroda</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 66277-2020.xlsx", "A 66277-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 42895-2020.xlsx", "A 42895-2020")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 66277-2020.png", "A 66277-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 42895-2020.png", "A 42895-2020")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 66277-2020.docx", "A 66277-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 42895-2020.docx", "A 42895-2020")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 66277-2020.docx", "A 66277-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 42895-2020.docx", "A 42895-2020")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 66277-2020.docx", "A 66277-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 42895-2020.docx", "A 42895-2020")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 66277-2020.docx", "A 66277-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 42895-2020.docx", "A 42895-2020")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 67221-2018</t>
+          <t>A 66277-2020</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>43439</v>
+        <v>44176</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,14 +1782,14 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1820,21 +1816,49 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Vanlig padda</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/artfynd/A 66277-2020.xlsx", "A 66277-2020")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/kartor/A 66277-2020.png", "A 66277-2020")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomål/A 66277-2020.docx", "A 66277-2020")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/klagomålsmail/A 66277-2020.docx", "A 66277-2020")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsyn/A 66277-2020.docx", "A 66277-2020")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVKARLEBY/tillsynsmail/A 66277-2020.docx", "A 66277-2020")</f>
+        <v/>
+      </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 10483-2019</t>
+          <t>A 67221-2018</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>43511</v>
+        <v>43439</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1846,8 +1870,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1884,14 +1913,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 10480-2019</t>
+          <t>A 10483-2019</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1904,7 +1933,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1941,14 +1970,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 10482-2019</t>
+          <t>A 10480-2019</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
         <v>43511</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1961,7 +1990,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1998,14 +2027,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 10481-2019</t>
+          <t>A 10482-2019</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>43511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2018,7 +2047,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,14 +2084,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 10898-2019</t>
+          <t>A 10481-2019</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>43515</v>
+        <v>43511</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2074,13 +2103,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>4.5</v>
+        <v>0.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2117,14 +2141,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 19969-2019</t>
+          <t>A 10898-2019</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>43570</v>
+        <v>43515</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2138,11 +2162,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2179,14 +2203,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 24105-2019</t>
+          <t>A 19969-2019</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>43598</v>
+        <v>43570</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2200,11 +2224,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2241,14 +2265,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 25340-2019</t>
+          <t>A 24105-2019</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>43606</v>
+        <v>43598</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2262,11 +2286,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2303,14 +2327,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 44457-2019</t>
+          <t>A 25340-2019</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>43711</v>
+        <v>43606</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2328,7 +2352,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>8.699999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2365,14 +2389,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 48822-2019</t>
+          <t>A 44457-2019</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>43728</v>
+        <v>43711</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2390,7 +2414,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2427,14 +2451,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 57745-2019</t>
+          <t>A 48822-2019</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>43768</v>
+        <v>43728</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2452,7 +2476,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2489,14 +2513,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 5511-2020</t>
+          <t>A 57745-2019</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43861</v>
+        <v>43768</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2508,8 +2532,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2546,14 +2575,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 15213-2020</t>
+          <t>A 5511-2020</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>43913</v>
+        <v>43861</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2566,7 +2595,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2603,14 +2632,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 32416-2020</t>
+          <t>A 15213-2020</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44018</v>
+        <v>43913</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2622,13 +2651,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2665,14 +2689,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 37193-2020</t>
+          <t>A 32416-2020</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44054</v>
+        <v>44018</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2690,7 +2714,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2727,14 +2751,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 40667-2020</t>
+          <t>A 37193-2020</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44069</v>
+        <v>44054</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2752,7 +2776,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>20.7</v>
+        <v>2.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2789,14 +2813,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 50413-2020</t>
+          <t>A 40667-2020</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44110</v>
+        <v>44069</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2814,7 +2838,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.1</v>
+        <v>20.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2851,14 +2875,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 50416-2020</t>
+          <t>A 50413-2020</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
         <v>44110</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2876,7 +2900,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2913,14 +2937,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 50409-2020</t>
+          <t>A 50416-2020</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
         <v>44110</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2938,7 +2962,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2975,14 +2999,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 66278-2020</t>
+          <t>A 50409-2020</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44176</v>
+        <v>44110</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3000,7 +3024,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3037,14 +3061,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 967-2021</t>
+          <t>A 66278-2020</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44207</v>
+        <v>44176</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3056,8 +3080,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3094,14 +3123,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 39791-2021</t>
+          <t>A 967-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44417</v>
+        <v>44207</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3114,7 +3143,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3151,14 +3180,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 70017-2021</t>
+          <t>A 39791-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44533</v>
+        <v>44417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3171,7 +3200,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3208,14 +3237,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 10455-2022</t>
+          <t>A 70017-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44623</v>
+        <v>44533</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3227,13 +3256,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3270,14 +3294,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 22916-2022</t>
+          <t>A 10455-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44715</v>
+        <v>44623</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3291,11 +3315,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>9.199999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3332,14 +3356,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 29116-2022</t>
+          <t>A 22916-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44750</v>
+        <v>44715</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3353,11 +3377,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3394,14 +3418,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 29168-2022</t>
+          <t>A 29116-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
         <v>44750</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3419,7 +3443,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5.1</v>
+        <v>1.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3456,14 +3480,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 36216-2022</t>
+          <t>A 29168-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44803</v>
+        <v>44750</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3477,11 +3501,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>5.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3518,14 +3542,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 36217-2022</t>
+          <t>A 36216-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
         <v>44803</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3543,7 +3567,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3580,14 +3604,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 36282-2022</t>
+          <t>A 36217-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
         <v>44803</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3599,8 +3623,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3637,14 +3666,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 60837-2022</t>
+          <t>A 36282-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44914</v>
+        <v>44803</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3656,13 +3685,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>3.1</v>
+        <v>0.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3699,14 +3723,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 7286-2023</t>
+          <t>A 60837-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44970</v>
+        <v>44914</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3724,7 +3748,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3761,14 +3785,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 21520-2023</t>
+          <t>A 7286-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45063</v>
+        <v>44970</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3786,7 +3810,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3823,14 +3847,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 26983-2023</t>
+          <t>A 21520-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45093</v>
+        <v>45063</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3848,7 +3872,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3885,14 +3909,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 38226-2023</t>
+          <t>A 26983-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45161</v>
+        <v>45093</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3947,14 +3971,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 38306-2023</t>
+          <t>A 38226-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
         <v>45161</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3972,7 +3996,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>18.6</v>
+        <v>4.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4009,14 +4033,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 38454-2023</t>
+          <t>A 38306-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45162</v>
+        <v>45161</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4034,7 +4058,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.3</v>
+        <v>18.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4071,14 +4095,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 38461-2023</t>
+          <t>A 38454-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
         <v>45162</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4096,7 +4120,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>17.8</v>
+        <v>3.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4133,14 +4157,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 38453-2023</t>
+          <t>A 38461-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
         <v>45162</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4158,7 +4182,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.7</v>
+        <v>17.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4195,14 +4219,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 41272-2023</t>
+          <t>A 38453-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45174</v>
+        <v>45162</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4244,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4257,14 +4281,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 41263-2023</t>
+          <t>A 41272-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
         <v>45174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4282,7 +4306,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4316,17 +4340,17 @@
       </c>
       <c r="R56" s="2" t="inlineStr"/>
     </row>
-    <row r="57">
+    <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 41276-2023</t>
+          <t>A 41263-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
         <v>45174</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4344,39 +4368,282 @@
         </is>
       </c>
       <c r="G57" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" s="2" t="inlineStr"/>
+    </row>
+    <row r="58" ht="15" customHeight="1">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>A 41276-2023</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
         <v>0.3</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" s="2" t="inlineStr"/>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" s="2" t="inlineStr"/>
+    </row>
+    <row r="59" ht="15" customHeight="1">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>A 45529-2023</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>45194</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" s="2" t="inlineStr"/>
+    </row>
+    <row r="60" ht="15" customHeight="1">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>A 45871-2023</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" s="2" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>A 46436-2023</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43759</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44285</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44377</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         <v>45090</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43367</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43787</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>44110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44323</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44967</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>45195</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>43782</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         <v>43783</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>44078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>44176</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43439</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>43511</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43511</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43515</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>43570</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         <v>43598</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43606</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43711</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43728</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43768</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>43861</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>43913</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>44018</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>44054</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44069</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44110</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>44110</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44110</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>44176</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>44207</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>44417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>44533</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>44623</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>44715</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44750</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>44750</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44803</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>44803</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44803</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44914</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44970</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>45063</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>45093</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>45161</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>45161</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>45162</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>45162</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45162</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>45174</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>45174</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>45194</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>45195</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>45197</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43759</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44285</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44377</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         <v>45090</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43367</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43787</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>44110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44323</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44967</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>45195</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>43782</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         <v>43783</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>44078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>44176</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43439</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>43511</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43511</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43515</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>43570</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         <v>43598</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43606</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43711</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43728</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43768</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>43861</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>43913</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>44018</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>44054</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44069</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44110</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>44110</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44110</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>44176</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>44207</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>44417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>44533</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>44623</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>44715</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44750</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>44750</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44803</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>44803</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44803</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44914</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44970</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>45063</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>45093</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>45161</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>45161</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>45162</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>45162</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45162</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>45174</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>45174</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>45194</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>45195</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>45197</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43759</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44285</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44377</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         <v>45090</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43367</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43787</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>44110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44323</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44967</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>45195</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>43782</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         <v>43783</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>44078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>44176</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43439</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>43511</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43511</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43515</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>43570</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         <v>43598</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43606</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43711</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43728</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43768</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>43861</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>43913</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>44018</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>44054</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44069</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44110</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>44110</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44110</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>44176</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>44207</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>44417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>44533</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>44623</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>44715</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44750</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>44750</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44803</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>44803</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44803</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44914</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44970</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>45063</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>45093</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>45161</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>45161</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>45162</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>45162</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45162</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>45174</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>45174</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>45194</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>45195</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>45197</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -572,7 +572,7 @@
         <v>43759</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44285</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44377</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         <v>45090</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43367</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43787</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>44110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44323</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44967</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>45195</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>43782</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         <v>43783</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>44078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>44176</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43439</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43511</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>43511</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43511</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43515</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>43570</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         <v>43598</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43606</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43711</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43728</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43768</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>43861</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>43913</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>44018</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>44054</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44069</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44110</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>44110</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44110</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>44176</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>44207</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>44417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>44533</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>44623</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>44715</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44750</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>44750</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44803</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>44803</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44803</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44914</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44970</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>45063</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>45093</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>45161</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>45161</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>45162</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>45162</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45162</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>45174</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>45174</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>45194</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>45195</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>45197</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
